--- a/data/trans_camb/P57_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Clase-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 13,88</t>
+          <t>0,52; 14,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,44; 21,99</t>
+          <t>8,3; 21,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 16,12</t>
+          <t>6,66; 15,89</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 43,63</t>
+          <t>2,04; 46,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,39; 79,69</t>
+          <t>23,28; 77,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,78; 51,31</t>
+          <t>17,58; 50,76</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 22,52</t>
+          <t>7,95; 22,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,54; 25,7</t>
+          <t>13,94; 25,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,87; 21,92</t>
+          <t>12,95; 22,57</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,26; 82,53</t>
+          <t>20,65; 76,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,86; 120,09</t>
+          <t>48,09; 120,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>40,97; 83,91</t>
+          <t>41,4; 86,64</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,59; 60,55</t>
+          <t>17,47; 60,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,83; 22,84</t>
+          <t>5,39; 23,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,36; 57,03</t>
+          <t>16,11; 54,76</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>59,35; 233,96</t>
+          <t>58,46; 239,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,8; 112,59</t>
+          <t>16,9; 118,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>56,39; 212,15</t>
+          <t>54,83; 215,23</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,0; 21,95</t>
+          <t>13,22; 21,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 14,16</t>
+          <t>-13,8; 13,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 16,54</t>
+          <t>-1,59; 16,52</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>43,67; 83,15</t>
+          <t>44,14; 83,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-43,95; 48,18</t>
+          <t>-41,23; 47,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,28; 57,72</t>
+          <t>-3,74; 58,34</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,13; 25,46</t>
+          <t>13,44; 25,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,43; 16,85</t>
+          <t>2,73; 16,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,74; 17,89</t>
+          <t>7,28; 17,8</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>49,01; 114,2</t>
+          <t>50,69; 119,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>17,46; 99,86</t>
+          <t>15,45; 100,86</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>36,05; 90,31</t>
+          <t>35,44; 90,88</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,81; 29,13</t>
+          <t>5,92; 29,94</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>9,9; 18,87</t>
+          <t>9,73; 18,49</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>11,38; 20,25</t>
+          <t>11,5; 20,43</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,66; 68,85</t>
+          <t>14,07; 74,76</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>33,41; 71,69</t>
+          <t>32,37; 71,4</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>34,15; 66,29</t>
+          <t>34,1; 68,49</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>15,8; 31,95</t>
+          <t>15,87; 32,16</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,81; 14,82</t>
+          <t>4,18; 14,83</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>11,82; 22,01</t>
+          <t>12,06; 22,21</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>51,2; 102,43</t>
+          <t>51,19; 107,61</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>16,82; 57,66</t>
+          <t>16,56; 57,48</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>41,27; 78,08</t>
+          <t>41,6; 78,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_R2-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P57_R2-Clase-trans_camb.xlsx
@@ -1026,7 +1026,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
